--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1ABBA1-414A-44F1-A83C-58696B40F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300869EF-57D9-4999-8151-B12DCE8EF202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="SEKI" sheetId="6" r:id="rId6"/>
-    <sheet name="SEKI (2)" sheetId="8" r:id="rId7"/>
-    <sheet name="SEKI_KET" sheetId="7" r:id="rId8"/>
+    <sheet name="ICOR" sheetId="9" r:id="rId7"/>
+    <sheet name="skewed" sheetId="10" r:id="rId8"/>
+    <sheet name="SEKI (2)" sheetId="8" r:id="rId9"/>
+    <sheet name="SEKI_KET" sheetId="7" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ICOR!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">skewed!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="227">
   <si>
     <t>No</t>
   </si>
@@ -622,6 +628,108 @@
   </si>
   <si>
     <t>gxr</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>Pertanian, Peternakan, Perburuan dan Jasa Pertanian</t>
+  </si>
+  <si>
+    <t>Kehutanan dan Penebangan Kayu</t>
+  </si>
+  <si>
+    <t>Perikanan</t>
+  </si>
+  <si>
+    <t>Industri Batubara dan Pengilangan Migas</t>
+  </si>
+  <si>
+    <t>Industri Makanan dan Minuman</t>
+  </si>
+  <si>
+    <t>Industri Pengolahan Tembakau</t>
+  </si>
+  <si>
+    <t>Industri Tekstil dan Pakaian Jadi</t>
+  </si>
+  <si>
+    <t>Industri Kulit, Barang dari Kulit dan Alas Kaki</t>
+  </si>
+  <si>
+    <t>Industri Kayu, Barang dari Kayu dan Gabus dan Barang Anyaman dari Bambu, Rotan dan Sejenisnya</t>
+  </si>
+  <si>
+    <t>Industri Kertas dan Barang dari Kertas; Percetakan dan Reproduksi Media Rekaman</t>
+  </si>
+  <si>
+    <t>Industri Kimia, Farmasi dan Obat Tradisional</t>
+  </si>
+  <si>
+    <t>Industri Karet, Barang dari Karet dan Plastik</t>
+  </si>
+  <si>
+    <t>Industri Barang Logam; Komputer, Barang Elektronik, Optik; dan Peralatan Listrik</t>
+  </si>
+  <si>
+    <t>Industri Alat Angkutan</t>
+  </si>
+  <si>
+    <t>Industri Furnitur</t>
+  </si>
+  <si>
+    <t>Perdagangan Mobil, Sepeda Motor dan Reparasinya</t>
+  </si>
+  <si>
+    <t>Perdagangan Besar dan Eceran, Bukan Mobil dan Sepeda Motor</t>
+  </si>
+  <si>
+    <t>Transportasi dan Pergudangan</t>
+  </si>
+  <si>
+    <t>Penyediaan Akomodasi</t>
+  </si>
+  <si>
+    <t>Penyediaan Makan Minum</t>
+  </si>
+  <si>
+    <t>Informasi dan Komunikasi</t>
+  </si>
+  <si>
+    <t>Jasa Keuangan dan Asuransi</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Jasa Kesehatan dan Kegiatan Sosial</t>
+  </si>
+  <si>
+    <t>Jasa Pendidikan</t>
+  </si>
+  <si>
+    <t>icor</t>
+  </si>
+  <si>
+    <t>sektor primer</t>
+  </si>
+  <si>
+    <t>Perdagangan, logistik, akomodasi</t>
+  </si>
+  <si>
+    <t>IT dan Bisnis</t>
+  </si>
+  <si>
+    <t>Keuangan dan real estate</t>
+  </si>
+  <si>
+    <t>Pendidikan, kesehatan dan sosial</t>
+  </si>
+  <si>
+    <t>PDB</t>
   </si>
 </sst>
 </file>
@@ -682,12 +790,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -698,7 +821,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -708,6 +831,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -998,10 +1124,10 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1320,6 +1446,207 @@
       </c>
       <c r="I12" t="s">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30657F85-E118-4DD6-B394-7A213CC7814B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1662,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
@@ -3720,7 +4047,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
@@ -6105,7 +6432,7 @@
       <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
@@ -9501,11 +9828,11 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" customWidth="1"/>
     <col min="11" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11097,19 +11424,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED3D6D5-393D-4BFC-85A9-357DBF0C3FFC}">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -11182,8 +11509,14 @@
       <c r="X1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -11223,7 +11556,7 @@
         <v>6.5</v>
       </c>
       <c r="Q2">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
         <v>3.25</v>
@@ -11243,8 +11576,14 @@
       <c r="X2">
         <v>25.336206896551712</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -11269,19 +11608,19 @@
         <v>18.8593424810926</v>
       </c>
       <c r="H3">
-        <f>(B3-B2)/B2*100</f>
+        <f t="shared" ref="H3:H15" si="2">(B3-B2)/B2*100</f>
         <v>11.041437016601105</v>
       </c>
       <c r="I3">
-        <f>(C3-C2)/C2*100</f>
+        <f t="shared" ref="I3:I15" si="3">(C3-C2)/C2*100</f>
         <v>7.4641190749892132</v>
       </c>
       <c r="J3">
-        <f>(D3-D2)/D2*100</f>
+        <f t="shared" ref="J3:J15" si="4">(D3-D2)/D2*100</f>
         <v>14.096359815633535</v>
       </c>
       <c r="K3">
-        <f>(E3-E2)/E2*100</f>
+        <f t="shared" ref="K3:K15" si="5">(E3-E2)/E2*100</f>
         <v>6.1697842077100784</v>
       </c>
       <c r="L3">
@@ -11300,7 +11639,7 @@
         <v>6.5</v>
       </c>
       <c r="Q3">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
         <v>3.25</v>
@@ -11324,8 +11663,14 @@
       <c r="X3">
         <v>24.884792626728117</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -11350,19 +11695,19 @@
         <v>19.028280450551367</v>
       </c>
       <c r="H4">
-        <f>(B4-B3)/B3*100</f>
+        <f t="shared" si="2"/>
         <v>9.1255174270806787</v>
       </c>
       <c r="I4">
-        <f>(C4-C3)/C3*100</f>
+        <f t="shared" si="3"/>
         <v>6.9798452430263769</v>
       </c>
       <c r="J4">
-        <f>(D4-D3)/D3*100</f>
+        <f t="shared" si="4"/>
         <v>10.010290196567142</v>
       </c>
       <c r="K4">
-        <f>(E4-E3)/E3*100</f>
+        <f t="shared" si="5"/>
         <v>6.0300506530561506</v>
       </c>
       <c r="L4">
@@ -11381,7 +11726,7 @@
         <v>5.77</v>
       </c>
       <c r="Q4">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R4">
         <v>2.5199999999999996</v>
@@ -11390,7 +11735,7 @@
         <v>9410.58</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T15" si="2">(S4-S3)/S3*100</f>
+        <f t="shared" ref="T4:T15" si="6">(S4-S3)/S3*100</f>
         <v>7.3338367029442564</v>
       </c>
       <c r="U4">
@@ -11405,8 +11750,14 @@
       <c r="X4">
         <v>-4.5051495291072348</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0.875</v>
+      </c>
+      <c r="Z4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -11431,19 +11782,19 @@
         <v>19.00953127211044</v>
       </c>
       <c r="H5">
-        <f>(B5-B4)/B4*100</f>
+        <f t="shared" si="2"/>
         <v>9.2572018160371918</v>
       </c>
       <c r="I5">
-        <f>(C5-C4)/C4*100</f>
+        <f t="shared" si="3"/>
         <v>5.4532547124929991</v>
       </c>
       <c r="J5">
-        <f>(D5-D4)/D4*100</f>
+        <f t="shared" si="4"/>
         <v>10.799227155481017</v>
       </c>
       <c r="K5">
-        <f>(E5-E4)/E4*100</f>
+        <f t="shared" si="5"/>
         <v>5.5572636889100924</v>
       </c>
       <c r="L5">
@@ -11462,7 +11813,7 @@
         <v>6.48</v>
       </c>
       <c r="Q5">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
         <v>3.2300000000000004</v>
@@ -11471,7 +11822,7 @@
         <v>10585</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.479783392734561</v>
       </c>
       <c r="U5">
@@ -11486,8 +11837,14 @@
       <c r="X5">
         <v>-3.0105542418824611</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0.54</v>
+      </c>
+      <c r="Z5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -11512,19 +11869,19 @@
         <v>19.118872207536775</v>
       </c>
       <c r="H6">
-        <f>(B6-B5)/B5*100</f>
+        <f t="shared" si="2"/>
         <v>11.644860862905878</v>
       </c>
       <c r="I6">
-        <f>(C6-C5)/C5*100</f>
+        <f t="shared" si="3"/>
         <v>5.610656350934395</v>
       </c>
       <c r="J6">
-        <f>(D6-D5)/D5*100</f>
+        <f t="shared" si="4"/>
         <v>10.722364676632454</v>
       </c>
       <c r="K6">
-        <f>(E6-E5)/E5*100</f>
+        <f t="shared" si="5"/>
         <v>5.0066684257549827</v>
       </c>
       <c r="L6">
@@ -11543,7 +11900,7 @@
         <v>7.54</v>
       </c>
       <c r="Q6">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <v>4.29</v>
@@ -11552,7 +11909,7 @@
         <v>11869.5</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12.135096835144072</v>
       </c>
       <c r="U6">
@@ -11567,8 +11924,14 @@
       <c r="X6">
         <v>-5.8928465243503583</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0.16</v>
+      </c>
+      <c r="Z6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -11593,19 +11956,19 @@
         <v>19.150770110974797</v>
       </c>
       <c r="H7">
-        <f>(B7-B6)/B6*100</f>
+        <f t="shared" si="2"/>
         <v>10.985242464570955</v>
       </c>
       <c r="I7">
-        <f>(C7-C6)/C6*100</f>
+        <f t="shared" si="3"/>
         <v>5.0512978304383545</v>
       </c>
       <c r="J7">
-        <f>(D7-D6)/D6*100</f>
+        <f t="shared" si="4"/>
         <v>9.0506544208001714</v>
       </c>
       <c r="K7">
-        <f>(E7-E6)/E6*100</f>
+        <f t="shared" si="5"/>
         <v>4.8763223002212319</v>
       </c>
       <c r="L7">
@@ -11624,7 +11987,7 @@
         <v>7.52</v>
       </c>
       <c r="Q7">
-        <v>3.27</v>
+        <v>0.27</v>
       </c>
       <c r="R7">
         <v>4.25</v>
@@ -11633,7 +11996,7 @@
         <v>13481.83</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13.583807237036099</v>
       </c>
       <c r="U7">
@@ -11648,8 +12011,14 @@
       <c r="X7">
         <v>-31.808416529761146</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -11674,19 +12043,19 @@
         <v>19.041424633255239</v>
       </c>
       <c r="H8">
-        <f>(B8-B7)/B7*100</f>
+        <f t="shared" si="2"/>
         <v>7.6622225645512358</v>
       </c>
       <c r="I8">
-        <f>(C8-C7)/C7*100</f>
+        <f t="shared" si="3"/>
         <v>4.4333600818313288</v>
       </c>
       <c r="J8">
-        <f>(D8-D7)/D7*100</f>
+        <f t="shared" si="4"/>
         <v>7.5947460062926453</v>
       </c>
       <c r="K8">
-        <f>(E8-E7)/E7*100</f>
+        <f t="shared" si="5"/>
         <v>5.0330691828017864</v>
       </c>
       <c r="L8">
@@ -11705,7 +12074,7 @@
         <v>6</v>
       </c>
       <c r="Q8">
-        <v>3.52</v>
+        <v>0.52</v>
       </c>
       <c r="R8">
         <v>2.48</v>
@@ -11714,7 +12083,7 @@
         <v>13327.5</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1.1447259014540305</v>
       </c>
       <c r="U8">
@@ -11729,8 +12098,14 @@
       <c r="X8">
         <v>-7.3387694588584154</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -11755,19 +12130,19 @@
         <v>19.001617695582805</v>
       </c>
       <c r="H9">
-        <f>(B9-B8)/B8*100</f>
+        <f t="shared" si="2"/>
         <v>7.5940909603650191</v>
       </c>
       <c r="I9">
-        <f>(C9-C8)/C8*100</f>
+        <f t="shared" si="3"/>
         <v>4.8501328817254885</v>
       </c>
       <c r="J9">
-        <f>(D9-D8)/D8*100</f>
+        <f t="shared" si="4"/>
         <v>9.5800936135636192</v>
       </c>
       <c r="K9">
-        <f>(E9-E8)/E8*100</f>
+        <f t="shared" si="5"/>
         <v>5.0697859013491664</v>
       </c>
       <c r="L9">
@@ -11786,7 +12161,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="Q9">
-        <v>4.12</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="R9">
         <v>0.4399999999999995</v>
@@ -11795,7 +12170,7 @@
         <v>13401</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55149127743387727</v>
       </c>
       <c r="U9">
@@ -11810,8 +12185,14 @@
       <c r="X9">
         <v>13.329999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -11836,19 +12217,19 @@
         <v>18.929259871800021</v>
       </c>
       <c r="H10">
-        <f>(B10-B9)/B9*100</f>
+        <f t="shared" si="2"/>
         <v>7.6043953041616623</v>
       </c>
       <c r="I10">
-        <f>(C10-C9)/C9*100</f>
+        <f t="shared" si="3"/>
         <v>4.7737896993586677</v>
       </c>
       <c r="J10">
-        <f>(D10-D9)/D9*100</f>
+        <f t="shared" si="4"/>
         <v>9.1901863023894474</v>
       </c>
       <c r="K10">
-        <f>(E10-E9)/E9*100</f>
+        <f t="shared" si="5"/>
         <v>5.1742915395502642</v>
       </c>
       <c r="L10">
@@ -11867,7 +12248,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="Q10">
-        <v>4.96</v>
+        <v>1.96</v>
       </c>
       <c r="R10">
         <v>0.13999999999999968</v>
@@ -11876,7 +12257,7 @@
         <v>14243.83</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.2893067681516301</v>
       </c>
       <c r="U10">
@@ -11891,8 +12272,14 @@
       <c r="X10">
         <v>12.706256066354898</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -11917,19 +12304,19 @@
         <v>18.807529209056618</v>
       </c>
       <c r="H11">
-        <f>(B11-B10)/B10*100</f>
+        <f t="shared" si="2"/>
         <v>6.4152834263770053</v>
       </c>
       <c r="I11">
-        <f>(C11-C10)/C10*100</f>
+        <f t="shared" si="3"/>
         <v>4.3439275461118889</v>
       </c>
       <c r="J11">
-        <f>(D11-D10)/D10*100</f>
+        <f t="shared" si="4"/>
         <v>6.6980089166504202</v>
       </c>
       <c r="K11">
-        <f>(E11-E10)/E10*100</f>
+        <f t="shared" si="5"/>
         <v>5.0192876804628304</v>
       </c>
       <c r="L11">
@@ -11948,7 +12335,7 @@
         <v>5.63</v>
       </c>
       <c r="Q11">
-        <v>5.25</v>
+        <v>2.23</v>
       </c>
       <c r="R11">
         <v>0.37999999999999989</v>
@@ -11957,7 +12344,7 @@
         <v>14114.08</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.91092072848384176</v>
       </c>
       <c r="U11">
@@ -11972,8 +12359,14 @@
       <c r="X11">
         <v>-8.3848743443200568</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -11998,19 +12391,19 @@
         <v>18.719730775325143</v>
       </c>
       <c r="H12">
-        <f>(B12-B11)/B11*100</f>
+        <f t="shared" si="2"/>
         <v>-0.80799628821683644</v>
       </c>
       <c r="I12">
-        <f>(C12-C11)/C11*100</f>
+        <f t="shared" si="3"/>
         <v>-2.5226954696858921</v>
       </c>
       <c r="J12">
-        <f>(D12-D11)/D11*100</f>
+        <f t="shared" si="4"/>
         <v>-2.4588671066534555</v>
       </c>
       <c r="K12">
-        <f>(E12-E11)/E11*100</f>
+        <f t="shared" si="5"/>
         <v>-2.0655118293416463</v>
       </c>
       <c r="L12">
@@ -12029,7 +12422,7 @@
         <v>4.25</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
         <v>0.75</v>
@@ -12038,7 +12431,7 @@
         <v>14573.17</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2527093512294116</v>
       </c>
       <c r="U12">
@@ -12053,8 +12446,14 @@
       <c r="X12">
         <v>-9.5282857631174078</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -12079,19 +12478,19 @@
         <v>18.714421110526956</v>
       </c>
       <c r="H13">
-        <f>(B13-B12)/B12*100</f>
+        <f t="shared" si="2"/>
         <v>6.7547933472666326</v>
       </c>
       <c r="I13">
-        <f>(C13-C12)/C12*100</f>
+        <f t="shared" si="3"/>
         <v>3.6734713397976395</v>
       </c>
       <c r="J13">
-        <f>(D13-D12)/D12*100</f>
+        <f t="shared" si="4"/>
         <v>9.9291791111790371</v>
       </c>
       <c r="K13">
-        <f>(E13-E12)/E12*100</f>
+        <f t="shared" si="5"/>
         <v>3.7028856282775142</v>
       </c>
       <c r="L13">
@@ -12110,7 +12509,7 @@
         <v>3.52</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
         <v>0.27</v>
@@ -12119,7 +12518,7 @@
         <v>14318.5</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-1.7475264475745502</v>
       </c>
       <c r="U13">
@@ -12134,8 +12533,14 @@
       <c r="X13">
         <v>52.54557476149995</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -12160,19 +12565,19 @@
         <v>18.661118181793572</v>
       </c>
       <c r="H14">
-        <f>(B14-B13)/B13*100</f>
+        <f t="shared" si="2"/>
         <v>9.5442154917528566</v>
       </c>
       <c r="I14">
-        <f>(C14-C13)/C13*100</f>
+        <f t="shared" si="3"/>
         <v>5.0074798606937163</v>
       </c>
       <c r="J14">
-        <f>(D14-D13)/D13*100</f>
+        <f t="shared" si="4"/>
         <v>15.38185038157536</v>
       </c>
       <c r="K14">
-        <f>(E14-E13)/E13*100</f>
+        <f t="shared" si="5"/>
         <v>5.3074193477576488</v>
       </c>
       <c r="L14">
@@ -12191,7 +12596,7 @@
         <v>4</v>
       </c>
       <c r="Q14">
-        <v>5.0199999999999996</v>
+        <v>2.02</v>
       </c>
       <c r="R14">
         <v>-1.0199999999999996</v>
@@ -12200,7 +12605,7 @@
         <v>14906.92</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.1095086775849428</v>
       </c>
       <c r="U14">
@@ -12215,8 +12620,14 @@
       <c r="X14">
         <v>33.696594427244577</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0.73</v>
+      </c>
+      <c r="Z14">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -12241,19 +12652,19 @@
         <v>18.596756387016182</v>
       </c>
       <c r="H15">
-        <f>(B15-B14)/B14*100</f>
+        <f t="shared" si="2"/>
         <v>8.4091310108014579</v>
       </c>
       <c r="I15">
-        <f>(C15-C14)/C14*100</f>
+        <f t="shared" si="3"/>
         <v>4.6857971158805727</v>
       </c>
       <c r="J15">
-        <f>(D15-D14)/D14*100</f>
+        <f t="shared" si="4"/>
         <v>6.6585706245916336</v>
       </c>
       <c r="K15">
-        <f>(E15-E14)/E14*100</f>
+        <f t="shared" si="5"/>
         <v>5.0481057706728754</v>
       </c>
       <c r="L15">
@@ -12272,7 +12683,7 @@
         <v>5.8</v>
       </c>
       <c r="Q15">
-        <v>8.2291666666999994</v>
+        <v>5.23</v>
       </c>
       <c r="R15">
         <v>-2.4291666666999996</v>
@@ -12281,7 +12692,7 @@
         <v>15232.27</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.1825434093696106</v>
       </c>
       <c r="U15">
@@ -12295,6 +12706,12 @@
       </c>
       <c r="X15">
         <v>-23.281771026306032</v>
+      </c>
+      <c r="Y15">
+        <v>3.9</v>
+      </c>
+      <c r="Z15">
+        <v>4.7300000000000004</v>
       </c>
     </row>
     <row r="18" spans="4:4">
@@ -12309,6 +12726,687 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D599DC5-47AB-4815-9DD1-0730E0A03AF4}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.35403802682798308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1.6014895204024668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3.8099945447321173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12.076829021321949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="8">
+        <v>20.878534041093303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="8">
+        <v>37.765690059126641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="8">
+        <v>38.848208836367043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="8">
+        <v>40.511092338030465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="8">
+        <v>54.540864572046829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="8">
+        <v>59.610010716370738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="8">
+        <v>175.70642466734293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="8">
+        <v>237.94156290148001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="8">
+        <v>240.94623473361415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="8">
+        <v>265.69143834506929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="8">
+        <v>300.85866983207359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="8">
+        <v>308.06281199511528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="8">
+        <v>357.23374461875704</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="8">
+        <v>426.44121035425025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="8">
+        <v>484.33634567346405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="8">
+        <v>492.49212574991282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1028.619305915101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1135.8611126321046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1353.6513109350353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1923.6319891255703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="8">
+        <v>9397.0439646253399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{0D599DC5-47AB-4815-9DD1-0730E0A03AF4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2559A6F4-B714-488C-8333-2BF03A8317EE}">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="C1">
+        <v>2012</v>
+      </c>
+      <c r="D1">
+        <v>2013</v>
+      </c>
+      <c r="E1">
+        <v>2014</v>
+      </c>
+      <c r="F1">
+        <v>2015</v>
+      </c>
+      <c r="G1">
+        <v>2016</v>
+      </c>
+      <c r="H1">
+        <v>2017</v>
+      </c>
+      <c r="I1">
+        <v>2018</v>
+      </c>
+      <c r="J1">
+        <v>2019</v>
+      </c>
+      <c r="K1">
+        <v>2020</v>
+      </c>
+      <c r="L1">
+        <v>2021</v>
+      </c>
+      <c r="M1">
+        <v>2022</v>
+      </c>
+      <c r="N1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.0952886140006859</v>
+      </c>
+      <c r="C2">
+        <v>3.9125641434057958</v>
+      </c>
+      <c r="D2">
+        <v>3.4894433872337096</v>
+      </c>
+      <c r="E2">
+        <v>2.632915379937264</v>
+      </c>
+      <c r="F2">
+        <v>0.79181002631499575</v>
+      </c>
+      <c r="G2">
+        <v>2.4126393342593531</v>
+      </c>
+      <c r="H2">
+        <v>2.644382514736733</v>
+      </c>
+      <c r="I2">
+        <v>3.2238545581297329</v>
+      </c>
+      <c r="J2">
+        <v>2.7021786726419963</v>
+      </c>
+      <c r="K2">
+        <v>0.38270756810604323</v>
+      </c>
+      <c r="L2">
+        <v>2.6472859812379066</v>
+      </c>
+      <c r="M2">
+        <v>3.0413552517677109</v>
+      </c>
+      <c r="N2">
+        <v>3.1066480476589198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="8">
+        <v>7.4641190749892132</v>
+      </c>
+      <c r="C3">
+        <v>6.9798452430263929</v>
+      </c>
+      <c r="D3">
+        <v>5.4532547124929822</v>
+      </c>
+      <c r="E3">
+        <v>5.610656350934395</v>
+      </c>
+      <c r="F3">
+        <v>5.0512978304383545</v>
+      </c>
+      <c r="G3">
+        <v>4.4333600818313421</v>
+      </c>
+      <c r="H3">
+        <v>4.8501328817254619</v>
+      </c>
+      <c r="I3">
+        <v>4.7737896993586935</v>
+      </c>
+      <c r="J3">
+        <v>4.3439275461118889</v>
+      </c>
+      <c r="K3">
+        <v>-2.5226954696858916</v>
+      </c>
+      <c r="L3">
+        <v>3.673471339797616</v>
+      </c>
+      <c r="M3">
+        <v>5.0074798606937279</v>
+      </c>
+      <c r="N3">
+        <v>4.6857971158805949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="8">
+        <v>9.0111209194636963</v>
+      </c>
+      <c r="C4">
+        <v>5.8815377620670874</v>
+      </c>
+      <c r="D4">
+        <v>5.4858003828045456</v>
+      </c>
+      <c r="E4">
+        <v>5.6682394151913318</v>
+      </c>
+      <c r="F4">
+        <v>3.5695322369563458</v>
+      </c>
+      <c r="G4">
+        <v>4.8486341599309464</v>
+      </c>
+      <c r="H4">
+        <v>5.3896996154962826</v>
+      </c>
+      <c r="I4">
+        <v>5.4909569565054372</v>
+      </c>
+      <c r="J4">
+        <v>5.1395305130420486</v>
+      </c>
+      <c r="K4">
+        <v>-7.0831866459699331</v>
+      </c>
+      <c r="L4">
+        <v>4.2607121332600233</v>
+      </c>
+      <c r="M4">
+        <v>9.1354779670438457</v>
+      </c>
+      <c r="N4">
+        <v>7.4835996850652249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9.7990192420596696</v>
+      </c>
+      <c r="C5">
+        <v>10.934927042613214</v>
+      </c>
+      <c r="D5">
+        <v>9.7252711687302895</v>
+      </c>
+      <c r="E5">
+        <v>10.034978029701612</v>
+      </c>
+      <c r="F5">
+        <v>9.1704132855190821</v>
+      </c>
+      <c r="G5">
+        <v>8.4825400633816184</v>
+      </c>
+      <c r="H5">
+        <v>9.3212485477660003</v>
+      </c>
+      <c r="I5">
+        <v>7.4342579577023633</v>
+      </c>
+      <c r="J5">
+        <v>9.6383968257857724</v>
+      </c>
+      <c r="K5">
+        <v>6.4360932577316188</v>
+      </c>
+      <c r="L5">
+        <v>5.4119334602599452</v>
+      </c>
+      <c r="M5">
+        <v>7.9570480637698964</v>
+      </c>
+      <c r="N5">
+        <v>7.739329005989311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7.293775726871532</v>
+      </c>
+      <c r="C6">
+        <v>8.5693204541372214</v>
+      </c>
+      <c r="D6">
+        <v>7.7628690995575207</v>
+      </c>
+      <c r="E6">
+        <v>4.8227329893482951</v>
+      </c>
+      <c r="F6">
+        <v>6.5912130463430358</v>
+      </c>
+      <c r="G6">
+        <v>7.0869188794243971</v>
+      </c>
+      <c r="H6">
+        <v>4.676336263847527</v>
+      </c>
+      <c r="I6">
+        <v>3.881968205473644</v>
+      </c>
+      <c r="J6">
+        <v>6.2529499399386497</v>
+      </c>
+      <c r="K6">
+        <v>2.8620876317214092</v>
+      </c>
+      <c r="L6">
+        <v>2.0690482674741331</v>
+      </c>
+      <c r="M6">
+        <v>1.8445569646904538</v>
+      </c>
+      <c r="N6">
+        <v>3.379472328846759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7.5673349857965384</v>
+      </c>
+      <c r="C7">
+        <v>7.4979042483304701</v>
+      </c>
+      <c r="D7">
+        <v>7.2548773338069568</v>
+      </c>
+      <c r="E7">
+        <v>6.8582216185547216</v>
+      </c>
+      <c r="F7">
+        <v>7.4170916202867216</v>
+      </c>
+      <c r="G7">
+        <v>5.233292366947925</v>
+      </c>
+      <c r="H7">
+        <v>5.715073271074476</v>
+      </c>
+      <c r="I7">
+        <v>6.7373205487036323</v>
+      </c>
+      <c r="J7">
+        <v>8.0126104892495533</v>
+      </c>
+      <c r="K7">
+        <v>2.2645719546747149</v>
+      </c>
+      <c r="L7">
+        <v>2.8166371357796738</v>
+      </c>
+      <c r="M7">
+        <v>3.5752055662045339</v>
+      </c>
+      <c r="N7">
+        <v>5.0310438227337357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6.1697842077100784</v>
+      </c>
+      <c r="C8">
+        <v>6.0300506530561506</v>
+      </c>
+      <c r="D8">
+        <v>5.5572636889100924</v>
+      </c>
+      <c r="E8">
+        <v>5.0066684257549827</v>
+      </c>
+      <c r="F8">
+        <v>4.8763223002212319</v>
+      </c>
+      <c r="G8">
+        <v>5.0330691828017864</v>
+      </c>
+      <c r="H8">
+        <v>5.0697859013491664</v>
+      </c>
+      <c r="I8">
+        <v>5.1742915395502642</v>
+      </c>
+      <c r="J8">
+        <v>5.0192876804628304</v>
+      </c>
+      <c r="K8">
+        <v>-2.0655118293416463</v>
+      </c>
+      <c r="L8">
+        <v>3.7028856282775142</v>
+      </c>
+      <c r="M8">
+        <v>5.3074193477576488</v>
+      </c>
+      <c r="N8">
+        <v>5.0481057706728754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741A64F7-9344-4C18-A40E-5773EC9FFDFA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
@@ -12316,7 +13414,7 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -12466,19 +13564,19 @@
         <v>18.8593424810926</v>
       </c>
       <c r="H3">
-        <f>(B3-B2)/B2*100</f>
+        <f t="shared" ref="H3:H15" si="1">(B3-B2)/B2*100</f>
         <v>11.041437016601105</v>
       </c>
       <c r="I3">
-        <f>(C3-C2)/C2*100</f>
+        <f t="shared" ref="I3:I15" si="2">(C3-C2)/C2*100</f>
         <v>7.4641190749892132</v>
       </c>
       <c r="J3">
-        <f>(D3-D2)/D2*100</f>
+        <f t="shared" ref="J3:J15" si="3">(D3-D2)/D2*100</f>
         <v>14.096359815633535</v>
       </c>
       <c r="K3">
-        <f>(E3-E2)/E2*100</f>
+        <f t="shared" ref="K3:K15" si="4">(E3-E2)/E2*100</f>
         <v>6.1697842077100784</v>
       </c>
       <c r="L3">
@@ -12537,19 +13635,19 @@
         <v>19.028280450551367</v>
       </c>
       <c r="H4">
-        <f>(B4-B3)/B3*100</f>
+        <f t="shared" si="1"/>
         <v>9.1255174270806787</v>
       </c>
       <c r="I4">
-        <f>(C4-C3)/C3*100</f>
+        <f t="shared" si="2"/>
         <v>6.9798452430263769</v>
       </c>
       <c r="J4">
-        <f>(D4-D3)/D3*100</f>
+        <f t="shared" si="3"/>
         <v>10.010290196567142</v>
       </c>
       <c r="K4">
-        <f>(E4-E3)/E3*100</f>
+        <f t="shared" si="4"/>
         <v>6.0300506530561506</v>
       </c>
       <c r="L4">
@@ -12608,19 +13706,19 @@
         <v>19.00953127211044</v>
       </c>
       <c r="H5">
-        <f>(B5-B4)/B4*100</f>
+        <f t="shared" si="1"/>
         <v>9.2572018160371918</v>
       </c>
       <c r="I5">
-        <f>(C5-C4)/C4*100</f>
+        <f t="shared" si="2"/>
         <v>5.4532547124929991</v>
       </c>
       <c r="J5">
-        <f>(D5-D4)/D4*100</f>
+        <f t="shared" si="3"/>
         <v>10.799227155481017</v>
       </c>
       <c r="K5">
-        <f>(E5-E4)/E4*100</f>
+        <f t="shared" si="4"/>
         <v>5.5572636889100924</v>
       </c>
       <c r="L5">
@@ -12679,19 +13777,19 @@
         <v>19.118872207536775</v>
       </c>
       <c r="H6">
-        <f>(B6-B5)/B5*100</f>
+        <f t="shared" si="1"/>
         <v>11.644860862905878</v>
       </c>
       <c r="I6">
-        <f>(C6-C5)/C5*100</f>
+        <f t="shared" si="2"/>
         <v>5.610656350934395</v>
       </c>
       <c r="J6">
-        <f>(D6-D5)/D5*100</f>
+        <f t="shared" si="3"/>
         <v>10.722364676632454</v>
       </c>
       <c r="K6">
-        <f>(E6-E5)/E5*100</f>
+        <f t="shared" si="4"/>
         <v>5.0066684257549827</v>
       </c>
       <c r="L6">
@@ -12750,19 +13848,19 @@
         <v>19.150770110974797</v>
       </c>
       <c r="H7">
-        <f>(B7-B6)/B6*100</f>
+        <f t="shared" si="1"/>
         <v>10.985242464570955</v>
       </c>
       <c r="I7">
-        <f>(C7-C6)/C6*100</f>
+        <f t="shared" si="2"/>
         <v>5.0512978304383545</v>
       </c>
       <c r="J7">
-        <f>(D7-D6)/D6*100</f>
+        <f t="shared" si="3"/>
         <v>9.0506544208001714</v>
       </c>
       <c r="K7">
-        <f>(E7-E6)/E6*100</f>
+        <f t="shared" si="4"/>
         <v>4.8763223002212319</v>
       </c>
       <c r="L7">
@@ -12821,19 +13919,19 @@
         <v>19.041424633255239</v>
       </c>
       <c r="H8">
-        <f>(B8-B7)/B7*100</f>
+        <f t="shared" si="1"/>
         <v>7.6622225645512358</v>
       </c>
       <c r="I8">
-        <f>(C8-C7)/C7*100</f>
+        <f t="shared" si="2"/>
         <v>4.4333600818313288</v>
       </c>
       <c r="J8">
-        <f>(D8-D7)/D7*100</f>
+        <f t="shared" si="3"/>
         <v>7.5947460062926453</v>
       </c>
       <c r="K8">
-        <f>(E8-E7)/E7*100</f>
+        <f t="shared" si="4"/>
         <v>5.0330691828017864</v>
       </c>
       <c r="L8">
@@ -12892,19 +13990,19 @@
         <v>19.001617695582805</v>
       </c>
       <c r="H9">
-        <f>(B9-B8)/B8*100</f>
+        <f t="shared" si="1"/>
         <v>7.5940909603650191</v>
       </c>
       <c r="I9">
-        <f>(C9-C8)/C8*100</f>
+        <f t="shared" si="2"/>
         <v>4.8501328817254885</v>
       </c>
       <c r="J9">
-        <f>(D9-D8)/D8*100</f>
+        <f t="shared" si="3"/>
         <v>9.5800936135636192</v>
       </c>
       <c r="K9">
-        <f>(E9-E8)/E8*100</f>
+        <f t="shared" si="4"/>
         <v>5.0697859013491664</v>
       </c>
       <c r="L9">
@@ -12963,19 +14061,19 @@
         <v>18.929259871800021</v>
       </c>
       <c r="H10">
-        <f>(B10-B9)/B9*100</f>
+        <f t="shared" si="1"/>
         <v>7.6043953041616623</v>
       </c>
       <c r="I10">
-        <f>(C10-C9)/C9*100</f>
+        <f t="shared" si="2"/>
         <v>4.7737896993586677</v>
       </c>
       <c r="J10">
-        <f>(D10-D9)/D9*100</f>
+        <f t="shared" si="3"/>
         <v>9.1901863023894474</v>
       </c>
       <c r="K10">
-        <f>(E10-E9)/E9*100</f>
+        <f t="shared" si="4"/>
         <v>5.1742915395502642</v>
       </c>
       <c r="L10">
@@ -13034,19 +14132,19 @@
         <v>18.807529209056618</v>
       </c>
       <c r="H11">
-        <f>(B11-B10)/B10*100</f>
+        <f t="shared" si="1"/>
         <v>6.4152834263770053</v>
       </c>
       <c r="I11">
-        <f>(C11-C10)/C10*100</f>
+        <f t="shared" si="2"/>
         <v>4.3439275461118889</v>
       </c>
       <c r="J11">
-        <f>(D11-D10)/D10*100</f>
+        <f t="shared" si="3"/>
         <v>6.6980089166504202</v>
       </c>
       <c r="K11">
-        <f>(E11-E10)/E10*100</f>
+        <f t="shared" si="4"/>
         <v>5.0192876804628304</v>
       </c>
       <c r="L11">
@@ -13105,19 +14203,19 @@
         <v>18.719730775325143</v>
       </c>
       <c r="H12">
-        <f>(B12-B11)/B11*100</f>
+        <f t="shared" si="1"/>
         <v>-0.80799628821683644</v>
       </c>
       <c r="I12">
-        <f>(C12-C11)/C11*100</f>
+        <f t="shared" si="2"/>
         <v>-2.5226954696858921</v>
       </c>
       <c r="J12">
-        <f>(D12-D11)/D11*100</f>
+        <f t="shared" si="3"/>
         <v>-2.4588671066534555</v>
       </c>
       <c r="K12">
-        <f>(E12-E11)/E11*100</f>
+        <f t="shared" si="4"/>
         <v>-2.0655118293416463</v>
       </c>
       <c r="L12">
@@ -13176,19 +14274,19 @@
         <v>18.714421110526956</v>
       </c>
       <c r="H13">
-        <f>(B13-B12)/B12*100</f>
+        <f t="shared" si="1"/>
         <v>6.7547933472666326</v>
       </c>
       <c r="I13">
-        <f>(C13-C12)/C12*100</f>
+        <f t="shared" si="2"/>
         <v>3.6734713397976395</v>
       </c>
       <c r="J13">
-        <f>(D13-D12)/D12*100</f>
+        <f t="shared" si="3"/>
         <v>9.9291791111790371</v>
       </c>
       <c r="K13">
-        <f>(E13-E12)/E12*100</f>
+        <f t="shared" si="4"/>
         <v>3.7028856282775142</v>
       </c>
       <c r="L13">
@@ -13247,19 +14345,19 @@
         <v>18.661118181793572</v>
       </c>
       <c r="H14">
-        <f>(B14-B13)/B13*100</f>
+        <f t="shared" si="1"/>
         <v>9.5442154917528566</v>
       </c>
       <c r="I14">
-        <f>(C14-C13)/C13*100</f>
+        <f t="shared" si="2"/>
         <v>5.0074798606937163</v>
       </c>
       <c r="J14">
-        <f>(D14-D13)/D13*100</f>
+        <f t="shared" si="3"/>
         <v>15.38185038157536</v>
       </c>
       <c r="K14">
-        <f>(E14-E13)/E13*100</f>
+        <f t="shared" si="4"/>
         <v>5.3074193477576488</v>
       </c>
       <c r="L14">
@@ -13318,19 +14416,19 @@
         <v>18.596756387016182</v>
       </c>
       <c r="H15">
-        <f>(B15-B14)/B14*100</f>
+        <f t="shared" si="1"/>
         <v>8.4091310108014579</v>
       </c>
       <c r="I15">
-        <f>(C15-C14)/C14*100</f>
+        <f t="shared" si="2"/>
         <v>4.6857971158805727</v>
       </c>
       <c r="J15">
-        <f>(D15-D14)/D14*100</f>
+        <f t="shared" si="3"/>
         <v>6.6585706245916336</v>
       </c>
       <c r="K15">
-        <f>(E15-E14)/E14*100</f>
+        <f t="shared" si="4"/>
         <v>5.0481057706728754</v>
       </c>
       <c r="L15">
@@ -13369,207 +14467,6 @@
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30657F85-E118-4DD6-B394-7A213CC7814B}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B852E-E13D-4594-AA12-67888755348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4F22F-68B2-4892-99C7-2DE5E98BD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APBN" sheetId="15" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <sheet name="SEKI (2)" sheetId="8" r:id="rId13"/>
     <sheet name="SEKI_KET" sheetId="7" r:id="rId14"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId15"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ICOR!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">skewed!$A$1:$B$1</definedName>
@@ -64,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="299">
   <si>
     <t>No</t>
   </si>
@@ -946,6 +943,21 @@
   </si>
   <si>
     <t>apbnm</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>gam</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>Kontribusi industri manuf</t>
+  </si>
+  <si>
+    <t>PDB industri manufaktur</t>
   </si>
 </sst>
 </file>
@@ -2084,191 +2096,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="share"/>
-      <sheetName val="pdbkonstan"/>
-      <sheetName val="pdbberlaku"/>
-      <sheetName val="deflator"/>
-      <sheetName val="growth"/>
-      <sheetName val="gkonstan"/>
-      <sheetName val="gberlaku"/>
-      <sheetName val="dkonstan"/>
-      <sheetName val="dberlaku"/>
-      <sheetName val="pmdn"/>
-      <sheetName val="pma"/>
-      <sheetName val="pmarp"/>
-      <sheetName val="inves"/>
-      <sheetName val="pmapct"/>
-      <sheetName val="ICORr"/>
-      <sheetName val="ICORr (2)"/>
-      <sheetName val="skonstan"/>
-      <sheetName val="APBN"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>2010</v>
-          </cell>
-          <cell r="C2">
-            <v>2011</v>
-          </cell>
-          <cell r="D2">
-            <v>2012</v>
-          </cell>
-          <cell r="E2">
-            <v>2013</v>
-          </cell>
-          <cell r="F2">
-            <v>2014</v>
-          </cell>
-          <cell r="G2">
-            <v>2015</v>
-          </cell>
-          <cell r="H2">
-            <v>2016</v>
-          </cell>
-          <cell r="I2">
-            <v>2017</v>
-          </cell>
-          <cell r="J2">
-            <v>2018</v>
-          </cell>
-          <cell r="K2">
-            <v>2019</v>
-          </cell>
-          <cell r="L2">
-            <v>2020</v>
-          </cell>
-          <cell r="M2">
-            <v>2021</v>
-          </cell>
-          <cell r="N2">
-            <v>2022</v>
-          </cell>
-          <cell r="O2">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>18.632194063952522</v>
-          </cell>
-          <cell r="C9">
-            <v>18.8593424810926</v>
-          </cell>
-          <cell r="D9">
-            <v>19.028280450551367</v>
-          </cell>
-          <cell r="E9">
-            <v>19.00953127211044</v>
-          </cell>
-          <cell r="F9">
-            <v>19.118872207536775</v>
-          </cell>
-          <cell r="G9">
-            <v>19.150770110974797</v>
-          </cell>
-          <cell r="H9">
-            <v>19.041424633255239</v>
-          </cell>
-          <cell r="I9">
-            <v>19.001617695582805</v>
-          </cell>
-          <cell r="J9">
-            <v>18.929259871800021</v>
-          </cell>
-          <cell r="K9">
-            <v>18.807529209056618</v>
-          </cell>
-          <cell r="L9">
-            <v>18.719730775325143</v>
-          </cell>
-          <cell r="M9">
-            <v>18.714421110526956</v>
-          </cell>
-          <cell r="N9">
-            <v>18.661118181793572</v>
-          </cell>
-          <cell r="O9">
-            <v>18.596756387016182</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>18.632194063952522</v>
-          </cell>
-          <cell r="C10">
-            <v>18.133318249387173</v>
-          </cell>
-          <cell r="D10">
-            <v>17.98747856312853</v>
-          </cell>
-          <cell r="E10">
-            <v>17.73714154861015</v>
-          </cell>
-          <cell r="F10">
-            <v>17.884920594711375</v>
-          </cell>
-          <cell r="G10">
-            <v>18.202203913459794</v>
-          </cell>
-          <cell r="H10">
-            <v>18.213619174133672</v>
-          </cell>
-          <cell r="I10">
-            <v>17.883520021894025</v>
-          </cell>
-          <cell r="J10">
-            <v>17.623794070068946</v>
-          </cell>
-          <cell r="K10">
-            <v>17.577095018516538</v>
-          </cell>
-          <cell r="L10">
-            <v>17.874585035068684</v>
-          </cell>
-          <cell r="M10">
-            <v>17.358427007419099</v>
-          </cell>
-          <cell r="N10">
-            <v>16.480193916202111</v>
-          </cell>
-          <cell r="O10">
-            <v>16.750679208268345</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2750,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF66A5F-4C21-4814-B445-043CD1CCB399}">
   <dimension ref="A2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
@@ -4984,6 +4811,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
@@ -9749,7 +9579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F5DE1F-AD70-4F3C-9143-48C1D1DC2FAF}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
@@ -13143,10 +12973,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB091F-08F3-4D64-B44E-2E0F5336570B}">
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13157,7 +12987,7 @@
     <col min="11" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -13207,7 +13037,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -13260,7 +13090,7 @@
         <v>20.36</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -13317,7 +13147,7 @@
         <v>3331044.1788785039</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -13374,7 +13204,7 @@
         <v>16360727.794098744</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -13423,7 +13253,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13478,7 +13308,7 @@
         <v>3.8662819253438139</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -13499,7 +13329,7 @@
         <v>3.7081851492920226</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -13520,7 +13350,7 @@
         <v>0.17366013441011</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -13540,8 +13370,38 @@
         <f t="shared" si="0"/>
         <v>2.6063034239358425</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="I9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>25</v>
+      </c>
+      <c r="O9">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <v>27</v>
+      </c>
+      <c r="Q9">
+        <v>28</v>
+      </c>
+      <c r="R9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -13561,8 +13421,40 @@
         <f t="shared" si="0"/>
         <v>5.4902407820734176</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="I10" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4">
+        <f>K11/K12*100</f>
+        <v>20.465858622293904</v>
+      </c>
+      <c r="L10" s="4">
+        <f>L11/L12*100</f>
+        <v>20.38630418633856</v>
+      </c>
+      <c r="M10">
+        <v>20.5</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
+      </c>
+      <c r="O10">
+        <v>21.5</v>
+      </c>
+      <c r="P10">
+        <v>21.9</v>
+      </c>
+      <c r="Q10">
+        <v>21.9</v>
+      </c>
+      <c r="R10">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -13582,8 +13474,46 @@
         <f t="shared" si="0"/>
         <v>6.1216580010921264</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="I11" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="2">
+        <f>B18+B17</f>
+        <v>2396602.7999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <f>D18+D17</f>
+        <v>2507799.6</v>
+      </c>
+      <c r="M11" s="3">
+        <f>M12*M10/100</f>
+        <v>2668049.3446599999</v>
+      </c>
+      <c r="N11" s="3">
+        <f>N12*N10/100</f>
+        <v>2891644.8946173601</v>
+      </c>
+      <c r="O11" s="3">
+        <f>O12*O10/100</f>
+        <v>3132202.2103743376</v>
+      </c>
+      <c r="P11" s="3">
+        <f>P12*P10/100</f>
+        <v>3375523.3327821149</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>Q12*Q10/100</f>
+        <v>3571303.6860834779</v>
+      </c>
+      <c r="R11" s="3">
+        <f>R12*R10/100</f>
+        <v>3778439.2998763192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -13603,8 +13533,44 @@
         <f t="shared" si="0"/>
         <v>0.73213869503818596</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11710248</v>
+      </c>
+      <c r="L12" s="3">
+        <v>12301394</v>
+      </c>
+      <c r="M12" s="3">
+        <f>L12*(1+0.058)</f>
+        <v>13014874.852</v>
+      </c>
+      <c r="N12" s="3">
+        <f>M12*(1+0.058)</f>
+        <v>13769737.593416</v>
+      </c>
+      <c r="O12" s="3">
+        <f>N12*(1+0.058)</f>
+        <v>14568382.373834128</v>
+      </c>
+      <c r="P12" s="3">
+        <f>O12*(1+0.058)</f>
+        <v>15413348.551516507</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>P12*(1+0.058)</f>
+        <v>16307322.767504465</v>
+      </c>
+      <c r="R12" s="3">
+        <f>Q12*(1+0.058)</f>
+        <v>17253147.488019723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -13624,8 +13590,43 @@
         <f t="shared" si="0"/>
         <v>10.018738703587081</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4">
+        <f>(L11-K11)/K11*100</f>
+        <v>4.6397675910251079</v>
+      </c>
+      <c r="M13" s="4">
+        <f>(M11-L11)/L11*100</f>
+        <v>6.3900538408252343</v>
+      </c>
+      <c r="N13" s="4">
+        <f>(N11-M11)/M11*100</f>
+        <v>8.3804878048780544</v>
+      </c>
+      <c r="O13" s="4">
+        <f>(O11-N11)/N11*100</f>
+        <v>8.3190476190476197</v>
+      </c>
+      <c r="P13" s="4">
+        <f>(P11-O11)/O11*100</f>
+        <v>7.7683720930232427</v>
+      </c>
+      <c r="Q13" s="4">
+        <f>(Q11-P11)/P11*100</f>
+        <v>5.8000000000000123</v>
+      </c>
+      <c r="R13" s="4">
+        <f>(R11-Q11)/Q11*100</f>
+        <v>5.7999999999999892</v>
+      </c>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -13645,8 +13646,36 @@
         <f t="shared" si="0"/>
         <v>8.5002033728606907</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="4">
+        <f>(L12-K12)/K12*100</f>
+        <v>5.0481082894230767</v>
+      </c>
+      <c r="M14" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="N14" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="P14" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="R14" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -13667,7 +13696,7 @@
         <v>5.3677644153593489</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -14745,10 +14774,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED3D6D5-393D-4BFC-85A9-357DBF0C3FFC}">
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14757,7 +14786,7 @@
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -14842,8 +14871,17 @@
       <c r="AB1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -14915,8 +14953,11 @@
       <c r="AB2">
         <v>1711.5129999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15008,8 +15049,19 @@
       <c r="AB3">
         <v>2329.2429999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3">
+        <f>(AA3-AA2)/AA2*100</f>
+        <v>17.28060401382983</v>
+      </c>
+      <c r="AD3">
+        <f>(AB3-AB2)/AB2*100</f>
+        <v>36.092626816156233</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15101,8 +15153,19 @@
       <c r="AB4">
         <v>2748.0250000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC15" si="7">(AA4-AA3)/AA3*100</f>
+        <v>17.229511718065314</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD15" si="8">(AB4-AB3)/AB3*100</f>
+        <v>17.97931774400525</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15194,8 +15257,19 @@
       <c r="AB5">
         <v>3334.518</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5">
+        <f t="shared" si="7"/>
+        <v>11.4887177331314</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="8"/>
+        <v>21.342345866576903</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15287,8 +15361,19 @@
       <c r="AB6">
         <v>2656.4580000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>8.7291286892709952</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="8"/>
+        <v>-20.334573092722845</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15380,8 +15465,19 @@
       <c r="AB7">
         <v>4600.9750000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7">
+        <f t="shared" si="7"/>
+        <v>5.715728433290276</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="8"/>
+        <v>73.1996139219969</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15473,8 +15569,19 @@
       <c r="AB8" s="1">
         <v>2164.4839999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>4.9794216385012566</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="8"/>
+        <v>-52.955971288694251</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15566,8 +15673,19 @@
       <c r="AB9">
         <v>2623.1109999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9">
+        <f t="shared" si="7"/>
+        <v>2.4171025146949243</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>21.188745215949851</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15659,8 +15777,19 @@
       <c r="AB10">
         <v>2847.922</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10">
+        <f t="shared" si="7"/>
+        <v>4.0951220128440831</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="8"/>
+        <v>8.5703959916297929</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15752,8 +15881,19 @@
       <c r="AB11">
         <v>3617.6640000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11">
+        <f t="shared" si="7"/>
+        <v>10.828105522304041</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="8"/>
+        <v>27.028198103740209</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -15845,8 +15985,19 @@
       <c r="AB12">
         <v>2107.982</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12">
+        <f t="shared" si="7"/>
+        <v>11.297892755431443</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="8"/>
+        <v>-41.730851731946366</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -15938,8 +16089,19 @@
       <c r="AB13">
         <v>2826.4409999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13">
+        <f t="shared" si="7"/>
+        <v>0.3965502282747812</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="8"/>
+        <v>34.082786285651387</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -16031,8 +16193,19 @@
       <c r="AB14">
         <v>2634.4029999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14">
+        <f t="shared" si="7"/>
+        <v>12.959767492272277</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="8"/>
+        <v>-6.7943395952719348</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -16123,6 +16296,17 @@
       </c>
       <c r="AB15">
         <v>4622.4780000000001</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="7"/>
+        <v>-1.4558617018255442</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>75.465864562103832</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:4">

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F4F22F-68B2-4892-99C7-2DE5E98BD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663EBDD-6206-4CE2-8420-C5C72274FEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APBN" sheetId="15" r:id="rId1"/>
@@ -1072,7 +1072,7 @@
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1092,6 +1092,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2758,13 +2764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120148D-2A5F-4A16-84FC-A52263605413}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2781,312 +2790,317 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="58">
+      <c r="A2" s="11">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="58">
+      <c r="A3" s="11">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="58">
+      <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="58">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="58">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="29">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="29">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="29">
+      <c r="A9" s="11">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:4" ht="29">
+      <c r="A10" s="11">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" ht="29">
+      <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>247</v>
       </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="A14" s="11">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" spans="1:4" ht="43.5">
+      <c r="A17" s="11">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="18" spans="1:4" ht="29">
+      <c r="A18" s="11">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="A19" s="11">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="20" spans="1:4" ht="29">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="21" spans="1:4" ht="29">
+      <c r="A21" s="11">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:4" ht="29">
+      <c r="A22" s="11">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" ht="29">
+      <c r="A23" s="11">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" ht="29">
+      <c r="A24" s="11">
         <v>15</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>269</v>
       </c>
+      <c r="D24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12975,7 +12989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB091F-08F3-4D64-B44E-2E0F5336570B}">
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -13489,27 +13503,27 @@
         <v>2507799.6</v>
       </c>
       <c r="M11" s="3">
-        <f>M12*M10/100</f>
+        <f t="shared" ref="M11:R11" si="4">M12*M10/100</f>
         <v>2668049.3446599999</v>
       </c>
       <c r="N11" s="3">
-        <f>N12*N10/100</f>
+        <f t="shared" si="4"/>
         <v>2891644.8946173601</v>
       </c>
       <c r="O11" s="3">
-        <f>O12*O10/100</f>
+        <f t="shared" si="4"/>
         <v>3132202.2103743376</v>
       </c>
       <c r="P11" s="3">
-        <f>P12*P10/100</f>
+        <f t="shared" si="4"/>
         <v>3375523.3327821149</v>
       </c>
       <c r="Q11" s="3">
-        <f>Q12*Q10/100</f>
+        <f t="shared" si="4"/>
         <v>3571303.6860834779</v>
       </c>
       <c r="R11" s="3">
-        <f>R12*R10/100</f>
+        <f t="shared" si="4"/>
         <v>3778439.2998763192</v>
       </c>
     </row>
@@ -13546,27 +13560,27 @@
         <v>12301394</v>
       </c>
       <c r="M12" s="3">
-        <f>L12*(1+0.058)</f>
+        <f t="shared" ref="M12:R12" si="5">L12*(1+0.058)</f>
         <v>13014874.852</v>
       </c>
       <c r="N12" s="3">
-        <f>M12*(1+0.058)</f>
+        <f t="shared" si="5"/>
         <v>13769737.593416</v>
       </c>
       <c r="O12" s="3">
-        <f>N12*(1+0.058)</f>
+        <f t="shared" si="5"/>
         <v>14568382.373834128</v>
       </c>
       <c r="P12" s="3">
-        <f>O12*(1+0.058)</f>
+        <f t="shared" si="5"/>
         <v>15413348.551516507</v>
       </c>
       <c r="Q12" s="3">
-        <f>P12*(1+0.058)</f>
+        <f t="shared" si="5"/>
         <v>16307322.767504465</v>
       </c>
       <c r="R12" s="3">
-        <f>Q12*(1+0.058)</f>
+        <f t="shared" si="5"/>
         <v>17253147.488019723</v>
       </c>
     </row>
@@ -13597,31 +13611,31 @@
         <v>6</v>
       </c>
       <c r="L13" s="4">
-        <f>(L11-K11)/K11*100</f>
+        <f t="shared" ref="L13:R13" si="6">(L11-K11)/K11*100</f>
         <v>4.6397675910251079</v>
       </c>
       <c r="M13" s="4">
-        <f>(M11-L11)/L11*100</f>
+        <f t="shared" si="6"/>
         <v>6.3900538408252343</v>
       </c>
       <c r="N13" s="4">
-        <f>(N11-M11)/M11*100</f>
+        <f t="shared" si="6"/>
         <v>8.3804878048780544</v>
       </c>
       <c r="O13" s="4">
-        <f>(O11-N11)/N11*100</f>
+        <f t="shared" si="6"/>
         <v>8.3190476190476197</v>
       </c>
       <c r="P13" s="4">
-        <f>(P11-O11)/O11*100</f>
+        <f t="shared" si="6"/>
         <v>7.7683720930232427</v>
       </c>
       <c r="Q13" s="4">
-        <f>(Q11-P11)/P11*100</f>
+        <f t="shared" si="6"/>
         <v>5.8000000000000123</v>
       </c>
       <c r="R13" s="4">
-        <f>(R11-Q11)/Q11*100</f>
+        <f t="shared" si="6"/>
         <v>5.7999999999999892</v>
       </c>
       <c r="S13" s="4"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663EBDD-6206-4CE2-8420-C5C72274FEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C9E76-E128-4DA2-8F24-67942AC26D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APBN" sheetId="15" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="302">
   <si>
     <t>No</t>
   </si>
@@ -958,6 +958,15 @@
   </si>
   <si>
     <t>PDB industri manufaktur</t>
+  </si>
+  <si>
+    <t>Upah Minimum Regional/Propinsi - Tabel Statistik - Badan Pusat Statistik Indonesia (bps.go.id)</t>
+  </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>ump</t>
   </si>
 </sst>
 </file>
@@ -1091,13 +1100,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2764,7 +2773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8120148D-2A5F-4A16-84FC-A52263605413}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2791,316 +2800,316 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="58">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="58">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="58">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="58">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="29">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>1</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="29">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>6</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="29">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="29">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3216,7 +3225,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:W1"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4280,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30657F85-E118-4DD6-B394-7A213CC7814B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4474,7 +4483,24 @@
         <v>173</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1" display="https://www.bps.go.id/id/statistics-table/2/MjIwIzI%3D/upah-minimum-regional-propinsi.html" xr:uid="{98B57228-D75E-47D3-9B9F-E6690DD2D73B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4830,61 +4856,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12">
         <v>2022</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>2022</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -7215,61 +7241,61 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12">
         <v>2023</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>2023</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -9600,80 +9626,80 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12">
         <v>2023</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12">
         <v>2023</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12">
         <v>2023</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -14788,10 +14814,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED3D6D5-393D-4BFC-85A9-357DBF0C3FFC}">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14800,7 +14826,7 @@
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -14894,8 +14920,11 @@
       <c r="AE1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -14971,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15075,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15178,8 +15207,11 @@
       <c r="AE4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4">
+        <v>1088903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15282,8 +15314,11 @@
       <c r="AE5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5">
+        <v>1296908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15386,8 +15421,11 @@
       <c r="AE6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6">
+        <v>1584391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15490,8 +15528,11 @@
       <c r="AE7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7">
+        <v>1790342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15594,8 +15635,11 @@
       <c r="AE8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8">
+        <v>1997819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15699,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15802,8 +15846,11 @@
       <c r="AE10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10">
+        <v>2268874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15906,8 +15953,11 @@
       <c r="AE11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11">
+        <v>2455662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16010,8 +16060,11 @@
       <c r="AE12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12">
+        <v>2672371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -16115,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -16219,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>2023</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\rocana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C9E76-E128-4DA2-8F24-67942AC26D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54595B69-A5EE-4467-912A-C4D919E5B509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APBN" sheetId="15" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -967,6 +967,12 @@
   </si>
   <si>
     <t>ump</t>
+  </si>
+  <si>
+    <t>gx</t>
+  </si>
+  <si>
+    <t>gm</t>
   </si>
 </sst>
 </file>
@@ -3225,7 +3231,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14814,19 +14820,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED3D6D5-393D-4BFC-85A9-357DBF0C3FFC}">
-  <dimension ref="A1:AF19"/>
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>147</v>
       </c>
@@ -14864,67 +14873,73 @@
         <v>154</v>
       </c>
       <c r="M1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" t="s">
         <v>156</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>157</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>303</v>
+      </c>
+      <c r="R1" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>150</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>191</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>151</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>192</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>152</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>153</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>168</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>169</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>193</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>194</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>292</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>293</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>294</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>295</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>296</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:34">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -14951,56 +14966,56 @@
       <c r="L2">
         <v>89386455.140000001</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>85140527.549999997</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17399877.469999999</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>102540405.02</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>6.5</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.25</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>3.25</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>9077.67</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>10.6</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>2.5</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>145.38999999999999</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>25.336206896551712</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>0.5</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>1126146.3999999999</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>1711.5129999999999</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:34">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -15044,67 +15059,75 @@
         <v>111461020.44</v>
       </c>
       <c r="M3">
+        <f>(L3-L2)/L2*100</f>
+        <v>24.695649095185718</v>
+      </c>
+      <c r="N3">
         <v>113151280.64</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>22301038.120000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>135452318.75999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
+        <f>(P3-P2)/P2*100</f>
+        <v>32.096531834042089</v>
+      </c>
+      <c r="R3">
         <v>6.5</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.25</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>3.25</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>8767.58</v>
       </c>
-      <c r="T3">
-        <f>(S3-S2)/S2*100</f>
+      <c r="V3">
+        <f>(U3-U2)/U2*100</f>
         <v>-3.4159646693479728</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>1.8</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>181.57</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>24.884792626728117</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>0.5</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>1320751.3</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>2329.2429999999999</v>
       </c>
-      <c r="AC3">
-        <f>(AA3-AA2)/AA2*100</f>
+      <c r="AE3">
+        <f>(AC3-AC2)/AC2*100</f>
         <v>17.28060401382983</v>
       </c>
-      <c r="AD3">
-        <f>(AB3-AB2)/AB2*100</f>
+      <c r="AF3">
+        <f>(AD3-AD2)/AD2*100</f>
         <v>36.092626816156233</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:34">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -15148,70 +15171,78 @@
         <v>112171467.22</v>
       </c>
       <c r="M4">
+        <f t="shared" ref="M4:M15" si="6">(L4-L3)/L3*100</f>
+        <v>0.63739482843012196</v>
+      </c>
+      <c r="N4">
         <v>126732417.34999999</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>26642473.48</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>153374890.82999998</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q15" si="7">(P4-P3)/P3*100</f>
+        <v>13.231646555830428</v>
+      </c>
+      <c r="R4">
         <v>5.77</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.25</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2.5199999999999996</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>9410.58</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T15" si="6">(S4-S3)/S3*100</f>
+      <c r="V4">
+        <f t="shared" ref="V4:V15" si="8">(U4-U3)/U3*100</f>
         <v>7.3338367029442564</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>7.7</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>2.21</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>173.39</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>-4.5051495291072348</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>0.875</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>0.5</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>1548310.3</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>2748.0250000000001</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC15" si="7">(AA4-AA3)/AA3*100</f>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE15" si="9">(AC4-AC3)/AC3*100</f>
         <v>17.229511718065314</v>
       </c>
-      <c r="AD4">
-        <f t="shared" ref="AD4:AD15" si="8">(AB4-AB3)/AB3*100</f>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF15" si="10">(AD4-AD3)/AD3*100</f>
         <v>17.97931774400525</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>1088903</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:34">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -15255,70 +15286,78 @@
         <v>109321210.88</v>
       </c>
       <c r="M5">
+        <f t="shared" si="6"/>
+        <v>-2.5409815977621508</v>
+      </c>
+      <c r="N5">
         <v>127649764.56999999</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>25541301.91</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>153191066.47999999</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>-0.11985296224513314</v>
+      </c>
+      <c r="R5">
         <v>6.48</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.25</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>3.2300000000000004</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>10585</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="6"/>
+      <c r="V5">
+        <f t="shared" si="8"/>
         <v>12.479783392734561</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>7.8</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>1.7</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>168.17</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>-3.0105542418824611</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>0.54</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>0.5</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>1726191.3</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>3334.518</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="7"/>
+      <c r="AE5">
+        <f t="shared" si="9"/>
         <v>11.4887177331314</v>
       </c>
-      <c r="AD5">
-        <f t="shared" si="8"/>
+      <c r="AF5">
+        <f t="shared" si="10"/>
         <v>21.342345866576903</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>1296908</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:34">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -15362,70 +15401,78 @@
         <v>115437931</v>
       </c>
       <c r="M6">
+        <f t="shared" si="6"/>
+        <v>5.5951814572509839</v>
+      </c>
+      <c r="N6">
         <v>121677775.48999999</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>25570739.239999998</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>147248514.72999999</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>-3.8791764340747874</v>
+      </c>
+      <c r="R6">
         <v>7.54</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.25</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>4.29</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>11869.5</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="6"/>
+      <c r="V6">
+        <f t="shared" si="8"/>
         <v>12.135096835144072</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>7.3</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>2.5</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>158.26</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>-5.8928465243503583</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>0.16</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>0.5</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>1876872.76</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>2656.4580000000001</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="7"/>
+      <c r="AE6">
+        <f t="shared" si="9"/>
         <v>8.7291286892709952</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="8"/>
+      <c r="AF6">
+        <f t="shared" si="10"/>
         <v>-20.334573092722845</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>1584391</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:34">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -15469,70 +15516,78 @@
         <v>104774489.45</v>
       </c>
       <c r="M7">
+        <f t="shared" si="6"/>
+        <v>-9.237381038993151</v>
+      </c>
+      <c r="N7">
         <v>97936858.379999995</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>22424296.73</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>120361155.11</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>-18.259851156598483</v>
+      </c>
+      <c r="R7">
         <v>7.52</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.27</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>4.25</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>13481.83</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="6"/>
+      <c r="V7">
+        <f t="shared" si="8"/>
         <v>13.583807237036099</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>7</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>2.9</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>107.92</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>-31.808416529761146</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>0.05</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>0.5</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>1984149.71</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>4600.9750000000004</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="7"/>
+      <c r="AE7">
+        <f t="shared" si="9"/>
         <v>5.715728433290276</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="8"/>
+      <c r="AF7">
+        <f t="shared" si="10"/>
         <v>73.1996139219969</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>1790342</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:34">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -15576,70 +15631,78 @@
         <v>105925272.84</v>
       </c>
       <c r="M8">
+        <f t="shared" si="6"/>
+        <v>1.0983431139019504</v>
+      </c>
+      <c r="N8">
         <v>95115716.359999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19855823.640000001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>114971540</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>-4.4778692137628155</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.52</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>2.48</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>13327.5</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="6"/>
+      <c r="V8">
+        <f t="shared" si="8"/>
         <v>-1.1447259014540305</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>6.8</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>1.7</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>100</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>-7.3387694588584154</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>0.5</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>2082948.89</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <v>2164.4839999999999</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="7"/>
+      <c r="AE8">
+        <f t="shared" si="9"/>
         <v>4.9794216385012566</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="8"/>
+      <c r="AF8">
+        <f t="shared" si="10"/>
         <v>-52.955971288694251</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>0</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>1997819</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:34">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -15683,67 +15746,75 @@
         <v>120616647</v>
       </c>
       <c r="M9">
+        <f t="shared" si="6"/>
+        <v>13.869564614850036</v>
+      </c>
+      <c r="N9">
         <v>110304595.89</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>21229078.949999999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>131533674.84</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>14.405421411246646</v>
+      </c>
+      <c r="R9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>1.1299999999999999</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.4399999999999995</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>13401</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="6"/>
+      <c r="V9">
+        <f t="shared" si="8"/>
         <v>0.55149127743387727</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>6.9</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>113.33</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>13.329999999999998</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>0</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>0.5</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>2133295.9</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>2623.1109999999999</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="7"/>
+      <c r="AE9">
+        <f t="shared" si="9"/>
         <v>2.4171025146949243</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="8"/>
+      <c r="AF9">
+        <f t="shared" si="10"/>
         <v>21.188745215949851</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:34">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -15787,70 +15858,78 @@
         <v>125211042.79000001</v>
       </c>
       <c r="M10">
+        <f t="shared" si="6"/>
+        <v>3.8090892959410541</v>
+      </c>
+      <c r="N10">
         <v>130724775.61</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>25955365.739999998</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>156680141.34999999</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>19.117892464107474</v>
+      </c>
+      <c r="R10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1.96</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.13999999999999968</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>14243.83</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="6"/>
+      <c r="V10">
+        <f t="shared" si="8"/>
         <v>6.2893067681516301</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>6.7</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>2.9</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>127.73</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>12.706256066354898</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>0.6</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>2220656.9700000002</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>2847.922</v>
       </c>
-      <c r="AC10">
-        <f t="shared" si="7"/>
+      <c r="AE10">
+        <f t="shared" si="9"/>
         <v>4.0951220128440831</v>
       </c>
-      <c r="AD10">
-        <f t="shared" si="8"/>
+      <c r="AF10">
+        <f t="shared" si="10"/>
         <v>8.5703959916297929</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>0</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>2268874</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:34">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -15894,70 +15973,78 @@
         <v>121350205.87</v>
       </c>
       <c r="M11">
+        <f t="shared" si="6"/>
+        <v>-3.083463593922203</v>
+      </c>
+      <c r="N11">
         <v>118420110.06999999</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>25811573.579999998</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>144231683.64999998</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>-7.9451407132650118</v>
+      </c>
+      <c r="R11">
         <v>5.63</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>2.23</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.37999999999999989</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>14114.08</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="6"/>
+      <c r="V11">
+        <f t="shared" si="8"/>
         <v>-0.91092072848384176</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>117.02</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>-8.3848743443200568</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>0.75</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>2461112.0499999998</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>3617.6640000000002</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="7"/>
+      <c r="AE11">
+        <f t="shared" si="9"/>
         <v>10.828105522304041</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="8"/>
+      <c r="AF11">
+        <f t="shared" si="10"/>
         <v>27.028198103740209</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>0</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>2455662</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:34">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -16001,70 +16088,78 @@
         <v>123009611.77</v>
       </c>
       <c r="M12">
+        <f t="shared" si="6"/>
+        <v>1.3674520682541558</v>
+      </c>
+      <c r="N12">
         <v>97861114.709999993</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>21970509.100000001</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>119831623.81</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>-16.917267567374736</v>
+      </c>
+      <c r="R12">
         <v>4.25</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>0.5</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.75</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>14573.17</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="6"/>
+      <c r="V12">
+        <f t="shared" si="8"/>
         <v>3.2527093512294116</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>105.87</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>-9.5282857631174078</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>0.21</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>2739165.85</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>2107.982</v>
       </c>
-      <c r="AC12">
-        <f t="shared" si="7"/>
+      <c r="AE12">
+        <f t="shared" si="9"/>
         <v>11.297892755431443</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="8"/>
+      <c r="AF12">
+        <f t="shared" si="10"/>
         <v>-41.730851731946366</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>2672371</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:34">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -16108,67 +16203,75 @@
         <v>172910019.02000001</v>
       </c>
       <c r="M13">
+        <f t="shared" si="6"/>
+        <v>40.566266759139467</v>
+      </c>
+      <c r="N13">
         <v>139900484.47999999</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>25371225.760000002</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>165271710.23999998</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>37.91994549122348</v>
+      </c>
+      <c r="R13">
         <v>3.52</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.25</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.27</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>14318.5</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="6"/>
+      <c r="V13">
+        <f t="shared" si="8"/>
         <v>-1.7475264475745502</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>8.4</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>5.8</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>161.5</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>52.54557476149995</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>0</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>0.11</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>2750028.0184309999</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>2826.4409999999998</v>
       </c>
-      <c r="AC13">
-        <f t="shared" si="7"/>
+      <c r="AE13">
+        <f t="shared" si="9"/>
         <v>0.3965502282747812</v>
       </c>
-      <c r="AD13">
-        <f t="shared" si="8"/>
+      <c r="AF13">
+        <f t="shared" si="10"/>
         <v>34.082786285651387</v>
       </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AG13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -16212,67 +16315,75 @@
         <v>201056922.90000001</v>
       </c>
       <c r="M14">
+        <f t="shared" si="6"/>
+        <v>16.278353353685262</v>
+      </c>
+      <c r="N14">
         <v>167467291.69999999</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>31825252.629999999</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>199292544.32999998</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>20.584789762625746</v>
+      </c>
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>2.02</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>-1.0199999999999996</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>14906.92</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="6"/>
+      <c r="V14">
+        <f t="shared" si="8"/>
         <v>4.1095086775849428</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>3</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>1.9</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>215.92</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>33.696594427244577</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>0.73</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>1.54</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>3106425.2555920002</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>2634.4029999999998</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="7"/>
+      <c r="AE14">
+        <f t="shared" si="9"/>
         <v>12.959767492272277</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="8"/>
+      <c r="AF14">
+        <f t="shared" si="10"/>
         <v>-6.7943395952719348</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:34">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -16316,63 +16427,71 @@
         <v>181993134.91</v>
       </c>
       <c r="M15">
+        <f t="shared" si="6"/>
+        <v>-9.4817864090568005</v>
+      </c>
+      <c r="N15">
         <v>149381305.44</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>32849980.681000002</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>182231286.12099999</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>-8.5609114311617116</v>
+      </c>
+      <c r="R15">
         <v>5.8</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>5.23</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>-2.4291666666999996</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>15232.27</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="6"/>
+      <c r="V15">
+        <f t="shared" si="8"/>
         <v>2.1825434093696106</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>5.2</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>2.5</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>165.65</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>-23.281771026306032</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>3.9</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>4.7300000000000004</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>3061200</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>4622.4780000000001</v>
       </c>
-      <c r="AC15">
-        <f t="shared" si="7"/>
+      <c r="AE15">
+        <f t="shared" si="9"/>
         <v>-1.4558617018255442</v>
       </c>
-      <c r="AD15">
-        <f t="shared" si="8"/>
+      <c r="AF15">
+        <f t="shared" si="10"/>
         <v>75.465864562103832</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>0</v>
       </c>
     </row>
